--- a/Antd Pro 組件參數.xlsx
+++ b/Antd Pro 組件參數.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ray03\Desktop\React 演練\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6529081B-2A17-4C45-9BD3-A1D291D2CF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2E3C44-E6F1-42DB-BB9A-CDF77A11B22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13760" yWindow="0" windowWidth="24730" windowHeight="20970" activeTab="1" xr2:uid="{A617DC02-E43C-41E1-9A91-FC18AFD6A21C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="1" activeTab="2" xr2:uid="{A617DC02-E43C-41E1-9A91-FC18AFD6A21C}"/>
   </bookViews>
   <sheets>
     <sheet name="ProTable (表格)" sheetId="13" r:id="rId1"/>
-    <sheet name="EditableProTable  (可編輯表格)" sheetId="14" r:id="rId2"/>
-    <sheet name="ProForm 的常用屬性" sheetId="3" r:id="rId3"/>
-    <sheet name="ProFormUploadButton (文件上傳)" sheetId="12" r:id="rId4"/>
-    <sheet name="ProFormCheckbox.Group (多選框)" sheetId="11" r:id="rId5"/>
-    <sheet name="ProFormRadio.Group (單選框)" sheetId="10" r:id="rId6"/>
-    <sheet name="ProFormSwitch (開關控件)" sheetId="9" r:id="rId7"/>
-    <sheet name="ProFormTimePicker (時間選擇)" sheetId="8" r:id="rId8"/>
-    <sheet name="ProFormDatePicker (日期選擇)" sheetId="7" r:id="rId9"/>
-    <sheet name="ProFormSelect (下拉選擇框)" sheetId="6" r:id="rId10"/>
-    <sheet name="ProFormText (單行文本輸入)" sheetId="4" r:id="rId11"/>
-    <sheet name="ProFormTextArea (多行文本輸入)" sheetId="5" r:id="rId12"/>
+    <sheet name="ProCard (卡片)" sheetId="14" r:id="rId2"/>
+    <sheet name="StepsForm (分步表單)" sheetId="15" r:id="rId3"/>
+    <sheet name="ProForm 的常用屬性" sheetId="3" r:id="rId4"/>
+    <sheet name="ProFormUploadButton (文件上傳)" sheetId="12" r:id="rId5"/>
+    <sheet name="ProFormCheckbox.Group (多選框)" sheetId="11" r:id="rId6"/>
+    <sheet name="ProFormRadio.Group (單選框)" sheetId="10" r:id="rId7"/>
+    <sheet name="ProFormSwitch (開關控件)" sheetId="9" r:id="rId8"/>
+    <sheet name="ProFormTimePicker (時間選擇)" sheetId="8" r:id="rId9"/>
+    <sheet name="ProFormDatePicker (日期選擇)" sheetId="7" r:id="rId10"/>
+    <sheet name="ProFormSelect (下拉選擇框)" sheetId="6" r:id="rId11"/>
+    <sheet name="ProFormText (單行文本輸入)" sheetId="4" r:id="rId12"/>
+    <sheet name="ProFormTextArea (多行文本輸入)" sheetId="5" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="522">
   <si>
     <t>fieldProps</t>
   </si>
@@ -8073,12 +8074,1890 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="1"/>
+      </rPr>
+      <t>類型</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="1"/>
+      </rPr>
+      <t>說明</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顯示卡片的標題</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">React </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>元素</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顯示卡片標題右側的額外內容，通常用於放置操作按鈕或其他動</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bordered</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>預設值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否顯示邊框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>true(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>顯示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) / false(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>不顯示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hoverable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>是否顯示卡片懸停效果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="3"/>
+      </rPr>
+      <t>顯示陰影</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>default | inner(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>嵌套</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>設置卡片的類型
+default = 標題為空白底
+inner = 標題為灰底</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>true(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="3"/>
+      </rPr>
+      <t>摺疊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) / false(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>不摺疊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>collapsible</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>headerBordered</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可折疊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>標題下方顯示分隔線</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>defaultCollapsed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否默認折疊狀態</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>React.ReactNode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片右上角的自訂區域</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>onChange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>current</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>onCurrentChange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(current:number)=&gt;void</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>onFinish</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>類型</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>說明</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>預設值</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>起始步驟，從</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>開始計算</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (0=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>步驟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>步驟改變時，觸發的事件
+＊參數為</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>完成的步驟數</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>formMapRef</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map&lt;String, ProFormInstance&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>StepsForm (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>外層</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>常用屬性</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>StepsForm.StepForm (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="3"/>
+      </rPr>
+      <t>內</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>層</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>常用屬性</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>步驟的標題</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>async (values:T)=&gt;void</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>設定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>紀錄各步驟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="3"/>
+      </rPr>
+      <t>表單資料的實例</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="3"/>
+      </rPr>
+      <t>各步驟表單</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>formRef</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="3"/>
+      </rPr>
+      <t>的集合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+＊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">key = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>步驟名稱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> value = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">該步驟的資料
+＊宣告
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  const formMapRef = useRef&lt;
+    React.MutableRefObject&lt;ProFormInstance&lt;any&gt; | undefined&gt;[]
+  &gt;([]);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>＊各步驟中，各欄位的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的設定格式：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>該步驟名稱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>','</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>該欄位名稱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>']</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>＊設定資料</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>需要使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> foreach </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>循環設定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) (key=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="3"/>
+      </rPr>
+      <t>步驟名稱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>const initData = {
+    step1: {
+      clientId: 'A123456789',
+      name: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="3"/>
+      </rPr>
+      <t>測試員</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>',
+    },
+    step2: {
+      address: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>台北市內湖區石潭路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>58</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>',
+    },
+  }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>formMapRef.current.forEach((formRef)=&gt;{
+    formRef.current?.setFieldsValue(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>initData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)
+  })</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>＊取得資料</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>需要使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> foreach </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>逐一取得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>各步驟的數據</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>formMapRef.current?.forEach(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(formRef, index)=&gt;{
+    console.log(index,formRef.current?.getFieldsValue())
+  }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>必備</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>最後一個步驟完成時</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>提交</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，觸發的事件
+＊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="1"/>
+      </rPr>
+      <t>單獨使用，按鈕為預設的【以前的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="1"/>
+      </rPr>
+      <t>下一步</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="1"/>
+      </rPr>
+      <t>提交】
+＊通常搭配</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> submitter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>使用，重新設定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>按鈕文字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+＊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">values </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>為</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>提交的數值
+＊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>需要設定為</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> ['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>該步驟名稱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>','</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>該欄位名稱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>才會有資料</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="1"/>
+      </rPr>
+      <t>下一步</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>觸發的事件
+＊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">values </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>為</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>提交的數值
+＊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="3"/>
+      </rPr>
+      <t>透過</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> value.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">該步驟名稱 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="1"/>
+      </rPr>
+      <t>可以取得該步驟資料</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>自定義步驟更換按鈕
+＊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">props </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="1"/>
+      </rPr>
+      <t>有該步驟的資訊，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">props.step = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="1"/>
+      </rPr>
+      <t>步驟數
+＊上一步事件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = props.onPre?.()    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="1"/>
+      </rPr>
+      <t>會自動觸發校驗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>＊下一步事件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = props.onSubmit?.() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【會自動觸發校驗】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>submitter={</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>submitter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">()}
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Consolas"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">const submitter = () =&gt; {
+    return {
+      render: (props: any) =&gt; {
+        // </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>上一步</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Consolas"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>設定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Consolas"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+        const previousName = '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>上一步</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Consolas"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">'
+        const previousShow = props.step &gt; 0 ? true : false 
+        // </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>下一步</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Consolas"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>設定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Consolas"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+        const nextName = props.step === 2 ? '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>提交</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Consolas"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>' : '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>下一步</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Consolas"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">'
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+        return [
+          &lt;Space&gt;
+            {previousShow &amp;&amp;
+            &lt;Button type='primary' onClick={()=&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>props.onPre?.()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">}
+            &gt;{previousName}&lt;/Button&gt;}
+            &lt;Button type='primary' onClick={()=&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>props.onSubmit?.()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}
+            &gt;{nextName}&lt;/Button&gt;
+          &lt;/Space&gt;
+        ]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Consolas"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+      }   
+    }
+  }</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="40">
+  <fonts count="49">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8344,6 +10223,67 @@
       <family val="1"/>
       <charset val="136"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Consolas"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -8397,7 +10337,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8476,17 +10416,59 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8500,6 +10482,27 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8508,36 +10511,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9800,8 +11773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA2444A-C615-4750-9C63-CF130E9688A4}">
   <dimension ref="A1:F112"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.90625" defaultRowHeight="15.5"/>
@@ -9815,14 +11788,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="48" t="s">
         <v>416</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:6" ht="17">
       <c r="A2" s="11" t="s">
@@ -10087,7 +12060,7 @@
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="80.5">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="31" t="s">
         <v>405</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -10103,7 +12076,7 @@
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" ht="258.5">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="31" t="s">
         <v>413</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -10119,7 +12092,7 @@
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" ht="68">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="31" t="s">
         <v>414</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -10135,20 +12108,20 @@
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
     </row>
     <row r="21" spans="1:6" ht="17">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="44" t="s">
         <v>313</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
     </row>
     <row r="22" spans="1:6" ht="17">
       <c r="A22" s="11" t="s">
@@ -10227,7 +12200,7 @@
       <c r="B27" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="33" t="s">
         <v>470</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -10403,12 +12376,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="17">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="45" t="s">
         <v>314</v>
       </c>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
     </row>
     <row r="42" spans="1:4" ht="17">
       <c r="A42" s="11" t="s">
@@ -10495,12 +12468,12 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="17">
-      <c r="A49" s="32" t="s">
+      <c r="A49" s="46" t="s">
         <v>325</v>
       </c>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
     </row>
     <row r="50" spans="1:4" ht="17">
       <c r="A50" s="11" t="s">
@@ -10573,12 +12546,12 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="17">
-      <c r="A56" s="33" t="s">
+      <c r="A56" s="47" t="s">
         <v>331</v>
       </c>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
     </row>
     <row r="57" spans="1:4" ht="17">
       <c r="A57" s="11" t="s">
@@ -10665,12 +12638,12 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="17">
-      <c r="A64" s="26" t="s">
+      <c r="A64" s="52" t="s">
         <v>346</v>
       </c>
-      <c r="B64" s="26"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
+      <c r="B64" s="52"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="52"/>
     </row>
     <row r="65" spans="1:4" ht="17">
       <c r="A65" s="11" t="s">
@@ -10771,12 +12744,12 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="17">
-      <c r="A73" s="27" t="s">
+      <c r="A73" s="53" t="s">
         <v>386</v>
       </c>
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
+      <c r="B73" s="53"/>
+      <c r="C73" s="53"/>
+      <c r="D73" s="53"/>
     </row>
     <row r="74" spans="1:4" ht="17">
       <c r="A74" s="11" t="s">
@@ -10919,12 +12892,12 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="17">
-      <c r="A85" s="28" t="s">
+      <c r="A85" s="54" t="s">
         <v>395</v>
       </c>
-      <c r="B85" s="28"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="28"/>
+      <c r="B85" s="54"/>
+      <c r="C85" s="54"/>
+      <c r="D85" s="54"/>
     </row>
     <row r="86" spans="1:4" ht="17">
       <c r="A86" s="11" t="s">
@@ -10941,7 +12914,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="17">
-      <c r="A87" s="44" t="s">
+      <c r="A87" s="32" t="s">
         <v>396</v>
       </c>
       <c r="B87" s="7" t="s">
@@ -11039,11 +13012,11 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="17">
-      <c r="A95" s="45" t="s">
+      <c r="A95" s="51" t="s">
         <v>445</v>
       </c>
-      <c r="B95" s="45"/>
-      <c r="C95" s="45"/>
+      <c r="B95" s="51"/>
+      <c r="C95" s="51"/>
     </row>
     <row r="96" spans="1:4" ht="17">
       <c r="A96" s="11" t="s">
@@ -11178,12 +13151,12 @@
       </c>
     </row>
     <row r="109" spans="1:4" ht="17">
-      <c r="A109" s="43" t="s">
+      <c r="A109" s="50" t="s">
         <v>407</v>
       </c>
-      <c r="B109" s="43"/>
-      <c r="C109" s="43"/>
-      <c r="D109" s="43"/>
+      <c r="B109" s="50"/>
+      <c r="C109" s="50"/>
+      <c r="D109" s="50"/>
     </row>
     <row r="110" spans="1:4" ht="17">
       <c r="A110" s="11" t="s">
@@ -11220,7 +13193,7 @@
       <c r="B112" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="C112" s="37" t="s">
+      <c r="C112" s="27" t="s">
         <v>469</v>
       </c>
       <c r="D112" s="4" t="s">
@@ -11247,6 +13220,579 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E60F3EB6-A5BE-49FF-AC6D-67D213B75F91}">
+  <dimension ref="A1:F47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="51" defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="22.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.6328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.6328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="51" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17">
+      <c r="A1" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+    </row>
+    <row r="2" spans="1:5" ht="17">
+      <c r="A2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17">
+      <c r="A3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17">
+      <c r="A4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17">
+      <c r="A5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="17">
+      <c r="A6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="17">
+      <c r="A7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="17">
+      <c r="A8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="34">
+      <c r="A9" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="34">
+      <c r="A10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" ht="34">
+      <c r="A11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" ht="34">
+      <c r="A12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="17">
+      <c r="A14" s="56" t="s">
+        <v>250</v>
+      </c>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+    </row>
+    <row r="15" spans="1:5" ht="17">
+      <c r="A15" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17">
+      <c r="A16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17">
+      <c r="A17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17">
+      <c r="A18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="34">
+      <c r="A19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17">
+      <c r="A20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17">
+      <c r="A21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17">
+      <c r="A22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17">
+      <c r="A23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17">
+      <c r="A24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17">
+      <c r="A25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="17">
+      <c r="A26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="17">
+      <c r="A27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="17">
+      <c r="A28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="17">
+      <c r="A29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="17">
+      <c r="A30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17">
+      <c r="A31" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="34">
+      <c r="A32" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" ht="34">
+      <c r="A33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" ht="17">
+      <c r="A35" s="57" t="s">
+        <v>249</v>
+      </c>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+    </row>
+    <row r="36" spans="1:6" ht="17">
+      <c r="A36" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17">
+      <c r="A37" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="17">
+      <c r="A38" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="34">
+      <c r="A39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="34">
+      <c r="A40" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17">
+      <c r="A41" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17">
+      <c r="A42" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="17">
+      <c r="A43" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="17">
+      <c r="A44" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="17">
+      <c r="A45" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="17">
+      <c r="A46" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="17">
+      <c r="A47" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A35:C35"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FEF9354-F255-4954-B8B2-CB6239BE4262}">
   <dimension ref="A1:F49"/>
   <sheetViews>
@@ -11265,13 +13811,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
     </row>
     <row r="2" spans="1:6" ht="17">
       <c r="A2" s="11" t="s">
@@ -11496,11 +14042,11 @@
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="17">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="56" t="s">
         <v>250</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
     </row>
     <row r="18" spans="1:6" ht="17">
       <c r="A18" s="11" t="s">
@@ -11705,11 +14251,11 @@
       <c r="B36" s="2"/>
     </row>
     <row r="37" spans="1:3" ht="17">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
     </row>
     <row r="38" spans="1:3" ht="17">
       <c r="A38" s="11" t="s">
@@ -11855,7 +14401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA428C82-1893-430C-B10D-7420FA908BCC}">
   <dimension ref="A1:F48"/>
   <sheetViews>
@@ -11874,13 +14420,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
     </row>
     <row r="2" spans="1:5" ht="17">
       <c r="A2" s="11" t="s">
@@ -12084,11 +14630,11 @@
       <c r="E14" s="4"/>
     </row>
     <row r="16" spans="1:5" ht="17">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="56" t="s">
         <v>250</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
     </row>
     <row r="17" spans="1:6" ht="17">
       <c r="A17" s="11" t="s">
@@ -12293,11 +14839,11 @@
       <c r="B35" s="2"/>
     </row>
     <row r="36" spans="1:3" ht="17">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
     </row>
     <row r="37" spans="1:3" ht="17">
       <c r="A37" s="11" t="s">
@@ -12443,7 +14989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C68FE968-A2F8-421B-80F2-9F34EAAA0BB9}">
   <dimension ref="A1:F48"/>
   <sheetViews>
@@ -12462,13 +15008,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
     </row>
     <row r="2" spans="1:5" ht="17">
       <c r="A2" s="11" t="s">
@@ -12675,11 +15221,11 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" ht="17">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="56" t="s">
         <v>250</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
     </row>
     <row r="17" spans="1:6" ht="17">
       <c r="A17" s="11" t="s">
@@ -12884,11 +15430,11 @@
       <c r="B35" s="2"/>
     </row>
     <row r="36" spans="1:3" ht="17">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
     </row>
     <row r="37" spans="1:3" ht="17">
       <c r="A37" s="11" t="s">
@@ -13036,25 +15582,381 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C805E5CE-D7A8-4604-A1BD-CD96FC49235B}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="20.6328125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="40.6328125" style="26" customWidth="1"/>
+    <col min="3" max="3" width="80.6328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" ht="17">
+      <c r="A2" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17">
+      <c r="A3" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>475</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17">
+      <c r="A4" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>477</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17">
+      <c r="A5" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>481</v>
+      </c>
+      <c r="D5" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17">
+      <c r="A6" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>484</v>
+      </c>
+      <c r="D6" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="51">
+      <c r="A7" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>488</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17">
+      <c r="A8" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>492</v>
+      </c>
+      <c r="D8" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17">
+      <c r="A9" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>495</v>
+      </c>
+      <c r="D9" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17">
+      <c r="A10" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>493</v>
+      </c>
+      <c r="D10" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>497</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>480</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10B0B28-D475-4375-AE73-3B056F68EA10}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="20.6328125" style="34" customWidth="1"/>
+    <col min="2" max="2" width="40.6328125" style="34" customWidth="1"/>
+    <col min="3" max="3" width="87.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="42"/>
+    <col min="6" max="16384" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17">
+      <c r="A1" s="49" t="s">
+        <v>511</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+    </row>
+    <row r="2" spans="1:5" ht="17">
+      <c r="A2" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="382.5">
+      <c r="A3" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17">
+      <c r="A4" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="34">
+      <c r="A5" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="85">
+      <c r="A6" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="409.5">
+      <c r="A7" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17">
+      <c r="A9" s="49" t="s">
+        <v>512</v>
+      </c>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+    </row>
+    <row r="10" spans="1:5" ht="17">
+      <c r="A10" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17">
+      <c r="A12" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="51">
+      <c r="A13" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A9:D9"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8661961F-C2D3-4DB2-B893-146EB6D961D7}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26" defaultRowHeight="15.5"/>
@@ -13068,13 +15970,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:5" ht="17">
       <c r="A2" s="11" t="s">
@@ -13372,12 +16274,12 @@
       <c r="E20" s="4"/>
     </row>
     <row r="22" spans="1:5" ht="17">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
     </row>
     <row r="23" spans="1:5" ht="17">
       <c r="A23" s="11" t="s">
@@ -13487,12 +16389,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA37337B-EE1F-49D8-B37F-D0E193CE4F54}">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="51" defaultRowHeight="15.5"/>
@@ -13506,13 +16408,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
     </row>
     <row r="2" spans="1:6" ht="17">
       <c r="A2" s="11" t="s">
@@ -13705,11 +16607,11 @@
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="17">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="56" t="s">
         <v>250</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
     </row>
     <row r="16" spans="1:6" ht="17">
       <c r="A16" s="11" t="s">
@@ -13950,11 +16852,11 @@
       <c r="B37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="17">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
     </row>
     <row r="39" spans="1:6" ht="17">
       <c r="A39" s="11" t="s">
@@ -14100,7 +17002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB83A99-44AE-47BA-B6D6-CBCDD00E47AB}">
   <dimension ref="A1:F47"/>
   <sheetViews>
@@ -14119,13 +17021,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
     </row>
     <row r="2" spans="1:6" ht="17">
       <c r="A2" s="11" t="s">
@@ -14318,11 +17220,11 @@
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="17">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="56" t="s">
         <v>250</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
     </row>
     <row r="16" spans="1:6" ht="17">
       <c r="A16" s="11" t="s">
@@ -14527,11 +17429,11 @@
       <c r="B34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="17">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
     </row>
     <row r="36" spans="1:6" ht="17">
       <c r="A36" s="11" t="s">
@@ -14677,11 +17579,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FCC419-5CE0-4B5D-BF1A-9498DD3D64AD}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A33" sqref="A33:XFD34"/>
     </sheetView>
   </sheetViews>
@@ -14696,13 +17598,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
     </row>
     <row r="2" spans="1:6" ht="17">
       <c r="A2" s="11" t="s">
@@ -14895,11 +17797,11 @@
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="17">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="56" t="s">
         <v>250</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
     </row>
     <row r="16" spans="1:6" ht="17">
       <c r="A16" s="11" t="s">
@@ -15104,11 +18006,11 @@
       <c r="B34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="17">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
     </row>
     <row r="36" spans="1:6" ht="17">
       <c r="A36" s="11" t="s">
@@ -15254,12 +18156,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58ECADA3-E26A-411E-87C1-1614D1E9AEDF}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="51" defaultRowHeight="15.5"/>
@@ -15273,13 +18175,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
     </row>
     <row r="2" spans="1:5" ht="17">
       <c r="A2" s="11" t="s">
@@ -15456,11 +18358,11 @@
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" ht="17">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="56" t="s">
         <v>250</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
     </row>
     <row r="15" spans="1:5" ht="17">
       <c r="A15" s="11" t="s">
@@ -15552,7 +18454,7 @@
     </row>
     <row r="23" spans="1:6" ht="17">
       <c r="A23" s="7" t="s">
-        <v>8</v>
+        <v>498</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>206</v>
@@ -15689,11 +18591,11 @@
       <c r="B35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="17">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
     </row>
     <row r="37" spans="1:6" ht="17">
       <c r="A37" s="11" t="s">
@@ -15839,7 +18741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A396B5-25DE-4381-9DCD-5FC83DCE6DB9}">
   <dimension ref="A1:F47"/>
   <sheetViews>
@@ -15858,13 +18760,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
     </row>
     <row r="2" spans="1:5" ht="17">
       <c r="A2" s="11" t="s">
@@ -16041,11 +18943,11 @@
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" ht="17">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="56" t="s">
         <v>250</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
     </row>
     <row r="15" spans="1:5" ht="17">
       <c r="A15" s="11" t="s">
@@ -16262,584 +19164,11 @@
       <c r="B34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="17">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-    </row>
-    <row r="36" spans="1:6" ht="17">
-      <c r="A36" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="17">
-      <c r="A37" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="17">
-      <c r="A38" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="34">
-      <c r="A39" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="34">
-      <c r="A40" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="17">
-      <c r="A41" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="17">
-      <c r="A42" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="17">
-      <c r="A43" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="17">
-      <c r="A44" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="17">
-      <c r="A45" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="17">
-      <c r="A46" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="17">
-      <c r="A47" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A35:C35"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E60F3EB6-A5BE-49FF-AC6D-67D213B75F91}">
-  <dimension ref="A1:F47"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="51" defaultRowHeight="15.5"/>
-  <cols>
-    <col min="1" max="1" width="22.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.6328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.6328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="5.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="51" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="17">
-      <c r="A1" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-    </row>
-    <row r="2" spans="1:5" ht="17">
-      <c r="A2" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17">
-      <c r="A3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="17">
-      <c r="A4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="17">
-      <c r="A5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" ht="17">
-      <c r="A6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="17">
-      <c r="A7" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" ht="17">
-      <c r="A8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" ht="34">
-      <c r="A9" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" ht="34">
-      <c r="A10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" ht="34">
-      <c r="A11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" ht="34">
-      <c r="A12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" ht="17">
-      <c r="A14" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-    </row>
-    <row r="15" spans="1:5" ht="17">
-      <c r="A15" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="17">
-      <c r="A16" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="17">
-      <c r="A17" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="17">
-      <c r="A18" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="34">
-      <c r="A19" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="17">
-      <c r="A20" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="17">
-      <c r="A21" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="17">
-      <c r="A22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="17">
-      <c r="A23" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="17">
-      <c r="A24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="17">
-      <c r="A25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="17">
-      <c r="A26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="17">
-      <c r="A27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="17">
-      <c r="A28" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="17">
-      <c r="A29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="17">
-      <c r="A30" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="17">
-      <c r="A31" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="34">
-      <c r="A32" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" ht="34">
-      <c r="A33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" ht="17">
-      <c r="A35" s="36" t="s">
-        <v>249</v>
-      </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
     </row>
     <row r="36" spans="1:6" ht="17">
       <c r="A36" s="11" t="s">
